--- a/exsample/49-C241101.xlsx
+++ b/exsample/49-C241101.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9月23日之后进货货单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python study\Avery5160\exsample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E1014-6C97-4785-91D7-BC72EA673D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF918C-247C-4AED-931F-D3E8B5217E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7D32D5F-6216-487B-8DC5-F0CF957A42FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
   <si>
     <t>Lot ID</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>C241101-60</t>
+  </si>
+  <si>
+    <t>safe code</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6073AA-4051-4B02-9DEC-71EB9CC1CDF9}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,7 +1320,7 @@
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1342,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1369,14 +1375,14 @@
       <c r="I2">
         <v>1166.8483000000001</v>
       </c>
-      <c r="K2" t="str">
+      <c r="J2" t="str">
         <f>A2&amp;"  ("&amp;I2&amp;")"&amp;CHAR(10)&amp;F2&amp;"  "&amp;G2&amp;CHAR(10)&amp;B2&amp;"  $"&amp;D2</f>
         <v>C241101-01  (1166.8483)
 SS  Washers
 WF45B6300AC  $1099.99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1405,14 +1411,14 @@
       <c r="I3">
         <v>2166.8483000000001</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K61" si="1">A3&amp;"  ("&amp;I3&amp;")"&amp;CHAR(10)&amp;F3&amp;"  "&amp;G3&amp;CHAR(10)&amp;B3&amp;"  $"&amp;D3</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J61" si="1">A3&amp;"  ("&amp;I3&amp;")"&amp;CHAR(10)&amp;F3&amp;"  "&amp;G3&amp;CHAR(10)&amp;B3&amp;"  $"&amp;D3</f>
         <v>C241101-02  (2166.8483)
 SS  Washers
 WF45B6300AC  $1099.99</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1441,14 +1447,14 @@
       <c r="I4">
         <v>3151.8483000000001</v>
       </c>
-      <c r="K4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="1"/>
         <v>C241101-03  (3151.8483)
 SS  Washers
 WA50R5200AV  $999.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1477,14 +1483,14 @@
       <c r="I5">
         <v>4151.6983</v>
       </c>
-      <c r="K5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="1"/>
         <v>C241101-04  (4151.6983)
 SS  Washers
 WA50R5200AV   $999.99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1513,14 +1519,14 @@
       <c r="I6">
         <v>5136.5282999999999</v>
       </c>
-      <c r="K6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="1"/>
         <v>C241101-05  (5136.5283)
 SS  Washers
 WF45T6000AW  $899.99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1549,14 +1555,14 @@
       <c r="I7">
         <v>6136.5282999999999</v>
       </c>
-      <c r="K7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="1"/>
         <v>C241101-06  (6136.5283)
 SS  Washers
 WA55A7300AE  $899.99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -1585,14 +1591,14 @@
       <c r="I8">
         <v>7128.9432999999999</v>
       </c>
-      <c r="K8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="1"/>
         <v>C241101-07  (7128.9433)
 SS  Washers
 WA55CG7500AE  $849.99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1621,14 +1627,14 @@
       <c r="I9">
         <v>8121.3582999999999</v>
       </c>
-      <c r="K9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="1"/>
         <v>C241101-08  (8121.3583)
 SS  Washers
 WA55CG7100AV  $799.99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1657,14 +1663,14 @@
       <c r="I10">
         <v>9121.3582999999999</v>
       </c>
-      <c r="K10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v>C241101-09  (9121.3583)
 SS  Washers
 WF45B6300AD  $799.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1693,14 +1699,14 @@
       <c r="I11">
         <v>1166.8683000000001</v>
       </c>
-      <c r="K11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>C241101-10  (1166.8683)
 LG  Washers
 WM4080HWA  $1099.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -1729,14 +1735,14 @@
       <c r="I12">
         <v>2128.9432999999999</v>
       </c>
-      <c r="K12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="1"/>
         <v>C241101-11  (2128.9433)
 LG  Washers
 WM5500HWA  $849.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1765,14 +1771,14 @@
       <c r="I13">
         <v>3128.9483</v>
       </c>
-      <c r="K13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v>C241101-12  (3128.9483)
 LG  Washers
 WT8400CB  $849.99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1801,14 +1807,14 @@
       <c r="I14">
         <v>4121.8482999999997</v>
       </c>
-      <c r="K14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v>C241101-13  (4121.8483)
 LG  Washers
 WT8400CW   $799.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1837,14 +1843,14 @@
       <c r="I15">
         <v>5118.4483</v>
       </c>
-      <c r="K15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v>C241101-14  (5118.4483)
 LG  Washers
 WM4000HBA  $779.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1873,14 +1879,14 @@
       <c r="I16">
         <v>6561.8482999999997</v>
       </c>
-      <c r="K16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v>C241101-15  (6561.8483)
 SS  Refrigerators
 RF29BB89008M  $3699.99</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -1909,14 +1915,14 @@
       <c r="I17">
         <v>7561.2483000000002</v>
       </c>
-      <c r="K17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v>C241101-16  (7561.2483)
 SS  Refrigerators
 RF29BB8900QK  $3699.99</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1945,14 +1951,14 @@
       <c r="I18">
         <v>8561.2482999999993</v>
       </c>
-      <c r="K18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>C241101-17  (8561.2483)
 SS  Refrigerators
 RF29BB8900QK  $3699.99</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1981,14 +1987,14 @@
       <c r="I19">
         <v>9439.9483</v>
       </c>
-      <c r="K19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v>C241101-18  (9439.9483)
 SS  Refrigerators
 RF23DB9750QL  $2899.99</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2017,14 +2023,14 @@
       <c r="I20">
         <v>1417.1483000000001</v>
       </c>
-      <c r="K20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v>C241101-19  (1417.1483)
 SS  Refrigerators
 RF23BB8200QL  $2749.99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2053,14 +2059,14 @@
       <c r="I21">
         <v>2379.2483000000002</v>
       </c>
-      <c r="K21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="1"/>
         <v>C241101-20  (2379.2483)
 SS  Refrigerators
 RF29DB9600QL  $2499.99</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2089,14 +2095,14 @@
       <c r="I22">
         <v>3341.3483000000001</v>
       </c>
-      <c r="K22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="1"/>
         <v>C241101-21  (3341.3483)
 SS  Refrigerators
 RF27CG5900SR  $2249.99</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2125,14 +2131,14 @@
       <c r="I23">
         <v>4257.8482999999997</v>
       </c>
-      <c r="K23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>C241101-22  (4257.8483)
 SS  Refrigerators
 RF30BB6200QL  $1699.99</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2161,14 +2167,14 @@
       <c r="I24">
         <v>5257.8482999999997</v>
       </c>
-      <c r="K24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>C241101-23  (5257.8483)
 SS  Refrigerators
 RF23B7671SR  $1699.99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2197,14 +2203,14 @@
       <c r="I25">
         <v>6250.3482999999997</v>
       </c>
-      <c r="K25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>C241101-24  (6250.3483)
 SS  Refrigerators
 RS23CB7600QL  $1649.99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2233,14 +2239,14 @@
       <c r="I26">
         <v>7235.3482999999997</v>
       </c>
-      <c r="K26" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>C241101-25  (7235.3483)
 SS  Refrigerators
 RS28CB760012  $1549.99</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2269,14 +2275,14 @@
       <c r="I27">
         <v>8224.4483</v>
       </c>
-      <c r="K27" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>C241101-26  (8224.4483)
 SS  Refrigerators
 RS22T5201SR  $1479.99</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2305,14 +2311,14 @@
       <c r="I28">
         <v>9227.8482999999997</v>
       </c>
-      <c r="K28" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>C241101-27  (9227.8483)
 MORA  Refrigerators
 MRM260N6TSE  $1499.99</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -2341,14 +2347,14 @@
       <c r="I29">
         <v>1151.6483000000001</v>
       </c>
-      <c r="K29" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>C241101-28  (1151.6483)
 Midea  Refrigerators
 MRQ23B4AST  $999.99</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2377,14 +2383,14 @@
       <c r="I30">
         <v>2523.3633</v>
       </c>
-      <c r="K30" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>C241101-29  (2523.3633)
 LG  Refrigerators
 LRFOC2606S  $3449.99</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2413,14 +2419,14 @@
       <c r="I31">
         <v>3273.0583000000001</v>
       </c>
-      <c r="K31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>C241101-30  (3273.0583)
 LG  Refrigerators
 LMXS28596S  $1799.99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2449,14 +2455,14 @@
       <c r="I32">
         <v>4310.9832999999999</v>
       </c>
-      <c r="K32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>C241101-31  (4310.9833)
 Kenmore  Refrigerators
 KM 46-75032  $2049.99</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2485,14 +2491,14 @@
       <c r="I33">
         <v>5235.1333000000004</v>
       </c>
-      <c r="K33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>C241101-32  (5235.1333)
 SS  Ranges
 NE63T8911  $1549.99</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2521,14 +2527,14 @@
       <c r="I34">
         <v>6136.5282999999999</v>
       </c>
-      <c r="K34" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>C241101-33  (6136.5283)
 MORA  Ranges
 MFE3501CPS  $899.99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -2557,14 +2563,14 @@
       <c r="I35">
         <v>7174.4533000000001</v>
       </c>
-      <c r="K35" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>C241101-34  (7174.4533)
 FRIDIDAIER  Laundry Suites
  FLCE7522AW  $1149.99</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -2593,14 +2599,14 @@
       <c r="I36">
         <v>8087.9843000000001</v>
       </c>
-      <c r="K36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>C241101-35  (8087.9843)
 Hisense  Freezers
 CFU14N6AWE  $579.99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -2629,14 +2635,14 @@
       <c r="I37">
         <v>9087.9843000000001</v>
       </c>
-      <c r="K37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>C241101-36  (9087.9843)
 Hisense  Freezers
  CFU14N6AWE  $579.99</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -2665,14 +2671,14 @@
       <c r="I38">
         <v>1174.4583</v>
       </c>
-      <c r="K38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v>C241101-37  (1174.4583)
 SS  Dryers
 DVE53BB8900T  $1149.99</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2701,14 +2707,14 @@
       <c r="I39">
         <v>2166.8683000000001</v>
       </c>
-      <c r="K39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="1"/>
         <v>C241101-38  (2166.8683)
 SS  Dryers
 DVE45B6300C  $1099.99</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2737,14 +2743,14 @@
       <c r="I40">
         <v>3166.8683000000001</v>
       </c>
-      <c r="K40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>C241101-39  (3166.8683)
 SS  Dryers
 DVE45B6300D  $1099.99</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -2773,14 +2779,14 @@
       <c r="I41">
         <v>4151.6983</v>
       </c>
-      <c r="K41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v>C241101-40  (4151.6983)
 SS  Dryers
 DVE50R5200V  $999.99</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -2809,14 +2815,14 @@
       <c r="I42">
         <v>5151.6983</v>
       </c>
-      <c r="K42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>C241101-41  (5151.6983)
 SS  Dryers
 DVE50R5200V  $999.99</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2845,14 +2851,14 @@
       <c r="I43">
         <v>6148.6683000000003</v>
       </c>
-      <c r="K43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v>C241101-42  (6148.6683)
 SS  Dryers
 DVE45T6000V  $979.99</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -2881,14 +2887,14 @@
       <c r="I44">
         <v>7136.5282999999999</v>
       </c>
-      <c r="K44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v>C241101-43  (7136.5283)
 SS  Dryers
 DVG45B6300C  $899.99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -2917,14 +2923,14 @@
       <c r="I45">
         <v>8121.3582999999999</v>
       </c>
-      <c r="K45" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v>C241101-44  (8121.3583)
 SS  Dryers
 DVE45B6300P  $799.99</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -2953,14 +2959,14 @@
       <c r="I46">
         <v>9113.7482999999993</v>
       </c>
-      <c r="K46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v>C241101-45  (9113.7483)
 SS  Dryers
 DVE55CG7100V  $749.99</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2989,14 +2995,14 @@
       <c r="I47">
         <v>1227.5482999999999</v>
       </c>
-      <c r="K47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v>C241101-46  (1227.5483)
 LG  Dryers
 DLEX8980V  $1499.99</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -3025,14 +3031,14 @@
       <c r="I48">
         <v>2174.4582999999998</v>
       </c>
-      <c r="K48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v>C241101-47  (2174.4583)
 LG  Dryers
 DLEX7480LE  $1149.99</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -3061,14 +3067,14 @@
       <c r="I49">
         <v>3166.8683000000001</v>
       </c>
-      <c r="K49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v>C241101-48  (3166.8683)
 LG  Dryers
 DLEX4080W  $1099.99</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>126</v>
       </c>
@@ -3097,14 +3103,14 @@
       <c r="I50">
         <v>4106.1882999999998</v>
       </c>
-      <c r="K50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v>C241101-49  (4106.1883)
 LG  Dryers
 DLE7150W  $699.99</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>127</v>
       </c>
@@ -3133,14 +3139,14 @@
       <c r="I51">
         <v>5091.0483000000004</v>
       </c>
-      <c r="K51" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v>C241101-50  (5091.0483)
 LG  Dryers
 DLE7000W  $599.99</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -3169,14 +3175,14 @@
       <c r="I52">
         <v>6113.3482999999997</v>
       </c>
-      <c r="K52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v>C241101-51  (6113.3483)
 SS  Dishwashers
 DW80CB545012  $749.99</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -3205,14 +3211,14 @@
       <c r="I53">
         <v>7182.0383000000002</v>
       </c>
-      <c r="K53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="1"/>
         <v>C241101-52  (7182.0383)
 Bosch  Dishwashers
  SHX78B75UC  $1199.99</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -3241,14 +3247,14 @@
       <c r="I54">
         <v>8182.0383000000002</v>
       </c>
-      <c r="K54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v>C241101-53  (8182.0383)
 Bosch  Dishwashers
 SHX78B75UC  $1199.99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -3277,14 +3283,14 @@
       <c r="I55">
         <v>9182.8482999999997</v>
       </c>
-      <c r="K55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v>C241101-54  (9182.8483)
 Bosch  Dishwashers
 SHX78B75UC  $1199.99</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -3313,14 +3319,14 @@
       <c r="I56">
         <v>1151.6483000000001</v>
       </c>
-      <c r="K56" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="1"/>
         <v>C241101-55  (1151.6483)
 Bosch  Dishwashers
 SHX5AEM5N  $999.99</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -3349,14 +3355,14 @@
       <c r="I57">
         <v>2037.9483</v>
       </c>
-      <c r="K57" t="str">
+      <c r="J57" t="str">
         <f t="shared" si="1"/>
         <v>C241101-56  (2037.9483)
 SS  Appliances
 WE402NC  $249.99</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -3385,14 +3391,14 @@
       <c r="I58">
         <v>3037.9232999999999</v>
       </c>
-      <c r="K58" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="1"/>
         <v>C241101-57  (3037.9233)
 SS  Appliances
 WE402NC  $249.99</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -3421,14 +3427,14 @@
       <c r="I59">
         <v>4113.7732999999998</v>
       </c>
-      <c r="K59" t="str">
+      <c r="J59" t="str">
         <f t="shared" si="1"/>
         <v>C241101-58  (4113.7733)
 LG  Appliances
 WD200CB  $749.99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -3457,14 +3463,14 @@
       <c r="I60">
         <v>5037.9233000000004</v>
       </c>
-      <c r="K60" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="1"/>
         <v>C241101-59  (5037.9233)
 LG  Appliances
 WDP5B  $249.99</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -3493,7 +3499,7 @@
       <c r="I61">
         <v>6037.9233000000004</v>
       </c>
-      <c r="K61" t="str">
+      <c r="J61" t="str">
         <f t="shared" si="1"/>
         <v>C241101-60  (6037.9233)
 LG  Appliances
